--- a/biology/Botanique/Peltogyne_paniculata/Peltogyne_paniculata.xlsx
+++ b/biology/Botanique/Peltogyne_paniculata/Peltogyne_paniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peltogyne paniculata est une espèce de plante de la famille des Caesalpiniaceae selon la classification classique, ou de celle des Fabaceae, sous-famille des Caesalpinioideae selon la classification phylogénétique.
 Cet arbre fournit un bois rougeâtre, appelé « amarante ».
@@ -512,12 +524,14 @@
           <t>Noms connus de l'espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des sous-espèces :
 Peltogyne paniculata subsp. paniculata (Benth)
 Peltogyne paniculata subsp. pubescens (Benth et M.F.Silva), cette sous-espèce est parfois appelée « amarante »
-Il est connu au Guyana et au Suriname sous le nom de purpleheart[1]. 
+Il est connu au Guyana et au Suriname sous le nom de purpleheart. 
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cet arbre au Mexique, en Amérique centrale, dans les Caraïbes et en Amérique du Sud tropicale. Il mesure de 50 à 55 mètres. Les feuilles de cet arbre sont glabres, plus ou moins coriaces, composées de deux folioles falciformes de 7 à 15 centimètres. L'écorce interne rougeâtre et granuleuse devient plus claire et plus fibreuse vers l'aubier, et l'écorce externe est lisse brun foncé, couverte de petites lenticelles tapissant tout le tronc.
 </t>
@@ -577,7 +593,9 @@
           <t>Caractéristiques technologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -608,7 +626,9 @@
           <t>Durabilité et traitement pour l'exploitation industrielle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce craint les champignons de façon moyennement durable et durable aux insectes et termites.
 </t>
